--- a/data.xlsx
+++ b/data.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">#000000</t>
   </si>
   <si>
-    <t xml:space="preserve">Maroon </t>
+    <t xml:space="preserve">Maroon</t>
   </si>
   <si>
     <t xml:space="preserve">#800000</t>
   </si>
   <si>
-    <t xml:space="preserve">Green </t>
+    <t xml:space="preserve">Green</t>
   </si>
   <si>
     <t xml:space="preserve">#008000</t>
@@ -1387,6 +1387,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1407,6 +1408,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1456,7 +1458,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1586,7 +1588,7 @@
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
